--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Doremi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\Doremi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -560,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +668,7 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C12" s="4">
@@ -687,7 +688,7 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C14" s="4">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -561,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +709,7 @@
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C16" s="4">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -561,7 +561,7 @@
   <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>6.25E-2</v>
       </c>
       <c r="C4" s="4"/>
@@ -720,7 +720,7 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C17" s="4">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -561,7 +561,7 @@
   <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
       <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C18" s="4">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -561,7 +561,7 @@
   <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C19" s="4">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,22 +599,22 @@
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7">
         <v>6.25E-2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -753,7 +753,7 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="7">
         <v>0.125</v>
       </c>
       <c r="C20" s="4">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,22 +617,22 @@
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C15" s="4">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +768,7 @@
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="7">
         <v>6.25E-2</v>
       </c>
       <c r="C22" s="4"/>

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -561,7 +561,7 @@
   <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>0.125</v>
       </c>
     </row>
@@ -670,7 +670,7 @@
       <c r="B12" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -679,7 +679,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -690,7 +690,7 @@
       <c r="B14" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
       <c r="B15" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -207,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +233,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +252,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -256,11 +269,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,8 +291,13 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -561,7 +580,7 @@
   <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,10 +663,10 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="7">
         <v>0.125</v>
       </c>
@@ -664,7 +683,7 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="7">
@@ -675,16 +694,16 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="7">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="7">
@@ -695,7 +714,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="7">
@@ -706,57 +725,57 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="7">
         <v>0.125</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -765,13 +784,13 @@
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="7">
         <v>6.25E-2</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="7"/>
       <c r="D22" t="s">
         <v>48</v>
       </c>
@@ -1037,13 +1056,13 @@
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -274,7 +274,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,7 +286,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,49 +608,49 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -663,11 +662,11 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
         <v>0.125</v>
       </c>
     </row>
@@ -683,99 +682,99 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>0.125</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -784,13 +783,13 @@
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
       <c r="D22" t="s">
         <v>48</v>
       </c>
@@ -807,13 +806,13 @@
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="6">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -821,10 +820,10 @@
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="6">
         <v>0.10416666666666667</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D26" t="s">
@@ -835,10 +834,10 @@
       <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="6"/>
       <c r="D27" t="s">
         <v>29</v>
       </c>
@@ -847,8 +846,8 @@
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -1056,13 +1055,13 @@
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -579,7 +579,7 @@
   <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,33 +863,33 @@
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,24 +905,24 @@
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D37" t="s">
@@ -930,107 +930,107 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="6"/>
       <c r="D44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
       <c r="D45" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
       <c r="D46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
@@ -1046,13 +1046,13 @@
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -204,10 +204,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,16 +234,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,11 +245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,12 +257,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,13 +277,11 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -579,7 +564,7 @@
   <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,64 +1040,64 @@
       <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="6">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="6">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A58" sqref="A58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,13 +1106,13 @@
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>

--- a/Оценка верстки Doremi 28.08.2018.xlsx
+++ b/Оценка верстки Doremi 28.08.2018.xlsx
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:C58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,13 +638,13 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
